--- a/Project/Sešit1.xlsx
+++ b/Project/Sešit1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\IMP\Project\bin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\IMP\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -54,7 +54,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -67,6 +67,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -308,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -345,6 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -627,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E6:BR14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="BN18" sqref="BN18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" activeCellId="3" sqref="M8 H8 H13 M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,12 +940,12 @@
       <c r="U8" s="16"/>
       <c r="V8" s="7"/>
       <c r="W8" s="6"/>
-      <c r="X8" s="16"/>
+      <c r="X8" s="22"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
-      <c r="AC8" s="16"/>
+      <c r="AC8" s="30"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="6"/>
       <c r="AF8" s="1"/>
@@ -1105,12 +1112,10 @@
       <c r="BA10" s="1"/>
       <c r="BB10" s="12"/>
       <c r="BC10" s="26"/>
-      <c r="BD10" s="16"/>
-      <c r="BE10" s="22"/>
+      <c r="BE10" s="16"/>
       <c r="BF10" s="22"/>
       <c r="BG10" s="22"/>
-      <c r="BH10" s="22"/>
-      <c r="BI10" s="16"/>
+      <c r="BH10" s="16"/>
       <c r="BJ10" s="22"/>
       <c r="BK10" s="6"/>
       <c r="BL10" s="16"/>
@@ -1175,12 +1180,10 @@
       <c r="BA11" s="1"/>
       <c r="BB11" s="12"/>
       <c r="BC11" s="26"/>
-      <c r="BD11" s="16"/>
-      <c r="BE11" s="22"/>
+      <c r="BE11" s="16"/>
       <c r="BF11" s="22"/>
       <c r="BG11" s="22"/>
-      <c r="BH11" s="22"/>
-      <c r="BI11" s="16"/>
+      <c r="BH11" s="16"/>
       <c r="BJ11" s="22"/>
       <c r="BK11" s="6"/>
       <c r="BL11" s="16"/>
